--- a/results/mp/logistic/home-spam/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,28 +46,40 @@
     <t>stopped</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>maybe</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>disappointed</t>
   </si>
   <si>
     <t>months</t>
@@ -76,151 +88,190 @@
     <t>difficult</t>
   </si>
   <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>ended</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
     <t>sent</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>sticks</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>returning</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>sticks</t>
-  </si>
-  <si>
-    <t>ended</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>although</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>spray</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
-    <t>1</t>
+    <t>cracked</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>half</t>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>noisy</t>
+  </si>
+  <si>
+    <t>machine</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>spray</t>
+    <t>worked</t>
   </si>
   <si>
     <t>china</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>cracked</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>thick</t>
-  </si>
-  <si>
-    <t>send</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>probably</t>
+    <t>black</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>mixer</t>
+  </si>
+  <si>
+    <t>microwave</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>unit</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>microwave</t>
-  </si>
-  <si>
-    <t>wo</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>lasted</t>
+    <t>twice</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>eggs</t>
   </si>
   <si>
     <t>rust</t>
   </si>
   <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>side</t>
+    <t>otherwise</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>sharpe</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>bottom</t>
   </si>
   <si>
     <t>found</t>
@@ -229,27 +280,36 @@
     <t>hold</t>
   </si>
   <si>
-    <t>bottom</t>
+    <t>put</t>
   </si>
   <si>
     <t>maker</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
-    <t>put</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
@@ -268,12 +328,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
@@ -286,37 +346,55 @@
     <t>salad</t>
   </si>
   <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>glad</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>wonderful</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>kids</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
     <t>easy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>positive</t>
@@ -677,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,10 +763,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -767,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="K3">
         <v>0.9354838709677419</v>
@@ -817,16 +895,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="K4">
-        <v>0.9296875</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -838,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -846,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9595959595959596</v>
+        <v>0.96</v>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -864,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="K5">
-        <v>0.8792569659442725</v>
+        <v>0.8854489164086687</v>
       </c>
       <c r="L5">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="M5">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -888,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -896,13 +974,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9576271186440678</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="C6">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D6">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -917,16 +995,16 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="K6">
-        <v>0.8610169491525423</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -938,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -946,13 +1024,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9245283018867925</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -964,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K7">
-        <v>0.8478260869565217</v>
+        <v>0.8508474576271187</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -988,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -996,13 +1074,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9135135135135135</v>
+        <v>0.925</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1014,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="K8">
-        <v>0.7792207792207793</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="L8">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M8">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1038,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1046,13 +1124,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1064,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="K9">
-        <v>0.7748917748917749</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1088,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1096,13 +1174,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8888888888888888</v>
+        <v>0.9027027027027027</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1114,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="K10">
-        <v>0.7236842105263158</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1138,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1146,13 +1224,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.863013698630137</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C11">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1164,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="K11">
-        <v>0.6301369863013698</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1188,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1196,13 +1274,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8592592592592593</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C12">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1214,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K12">
-        <v>0.5257142857142857</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L12">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1238,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1246,13 +1324,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.839622641509434</v>
+        <v>0.8767123287671232</v>
       </c>
       <c r="C13">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1264,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K13">
-        <v>0.492063492063492</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1288,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1296,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8235294117647058</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1314,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="K14">
-        <v>0.475</v>
+        <v>0.5314285714285715</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1338,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1346,13 +1424,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8181818181818182</v>
+        <v>0.8555555555555555</v>
       </c>
       <c r="C15">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1364,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="K15">
-        <v>0.4666666666666667</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1388,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1396,13 +1474,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.813953488372093</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="C16">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D16">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1414,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="K16">
-        <v>0.4375</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1438,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1446,13 +1524,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8076923076923077</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1464,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K17">
-        <v>0.4320987654320987</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1488,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1496,13 +1574,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C18">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="D18">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1514,31 +1592,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="K18">
-        <v>0.3693693693693694</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L18">
+        <v>28</v>
+      </c>
+      <c r="M18">
+        <v>28</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>41</v>
-      </c>
-      <c r="M18">
-        <v>41</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1546,13 +1624,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7972972972972973</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C19">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1564,19 +1642,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="K19">
-        <v>0.3258426966292135</v>
+        <v>0.3772070626003211</v>
       </c>
       <c r="L19">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="M19">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1588,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>840</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1596,13 +1674,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7887323943661971</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C20">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="D20">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1614,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>28</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20">
+        <v>0.3061224489795918</v>
+      </c>
+      <c r="L20">
         <v>15</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20">
-        <v>0.3188405797101449</v>
-      </c>
-      <c r="L20">
-        <v>22</v>
-      </c>
       <c r="M20">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1638,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1646,13 +1724,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7816091954022989</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C21">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1664,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K21">
-        <v>0.3098591549295774</v>
+        <v>0.2957746478873239</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1688,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1696,13 +1774,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1714,19 +1792,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K22">
-        <v>0.126027397260274</v>
+        <v>0.25</v>
       </c>
       <c r="L22">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1738,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>638</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1746,13 +1824,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.75</v>
+        <v>0.7897435897435897</v>
       </c>
       <c r="C23">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="D23">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1764,7 +1842,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23">
+        <v>0.1956521739130435</v>
+      </c>
+      <c r="L23">
+        <v>18</v>
+      </c>
+      <c r="M23">
+        <v>18</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1772,13 +1874,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7371794871794872</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C24">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1790,7 +1892,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24">
+        <v>0.1702127659574468</v>
+      </c>
+      <c r="L24">
+        <v>16</v>
+      </c>
+      <c r="M24">
+        <v>16</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1798,13 +1924,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7307692307692307</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="C25">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D25">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1816,7 +1942,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25">
+        <v>0.1452054794520548</v>
+      </c>
+      <c r="L25">
+        <v>106</v>
+      </c>
+      <c r="M25">
+        <v>106</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1824,13 +1974,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7272727272727273</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1842,7 +1992,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26">
+        <v>0.1442307692307692</v>
+      </c>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1850,13 +2024,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.725</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1868,7 +2042,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27">
+        <v>0.1203007518796992</v>
+      </c>
+      <c r="L27">
+        <v>16</v>
+      </c>
+      <c r="M27">
+        <v>16</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1876,13 +2074,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6991150442477876</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C28">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1894,7 +2092,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>7</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28">
+        <v>0.02119205298013245</v>
+      </c>
+      <c r="L28">
+        <v>16</v>
+      </c>
+      <c r="M28">
+        <v>16</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>739</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1902,13 +2124,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6666666666666666</v>
+        <v>0.7345132743362832</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1920,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1928,13 +2150,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6666666666666666</v>
+        <v>0.71875</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1946,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1954,13 +2176,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6538461538461539</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C31">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D31">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1972,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1980,13 +2202,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6407766990291263</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C32">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1998,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2006,13 +2228,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6060606060606061</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="C33">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="D33">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2024,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2032,13 +2254,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2050,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2058,13 +2280,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5909090909090909</v>
+        <v>0.6601941747572816</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2076,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2084,13 +2306,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5632183908045977</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="C36">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2102,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2110,13 +2332,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5454545454545454</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2128,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2136,13 +2358,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5428571428571428</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2154,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2162,13 +2384,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.54</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C39">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2180,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2188,13 +2410,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5294117647058824</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2206,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2214,13 +2436,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5251396648044693</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C41">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2232,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2240,13 +2462,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5192307692307693</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2258,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2266,13 +2488,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5172413793103449</v>
+        <v>0.61</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2284,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2292,13 +2514,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2310,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2318,13 +2540,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2336,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2344,13 +2566,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4857142857142857</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2362,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2370,13 +2592,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4845360824742268</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="C47">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D47">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2388,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2396,13 +2618,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4838709677419355</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2422,13 +2644,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4736842105263158</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C49">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2440,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2448,13 +2670,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4605263157894737</v>
+        <v>0.5463917525773195</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D50">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2466,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2474,13 +2696,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4423076923076923</v>
+        <v>0.5402298850574713</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D51">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2492,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2500,13 +2722,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.4411764705882353</v>
+        <v>0.5363128491620112</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2518,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2526,7 +2748,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.4390243902439024</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C53">
         <v>18</v>
@@ -2544,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2552,13 +2774,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="C54">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2570,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>114</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2578,13 +2800,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.4126984126984127</v>
+        <v>0.47</v>
       </c>
       <c r="C55">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D55">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2596,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2604,13 +2826,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.4090909090909091</v>
+        <v>0.4682539682539683</v>
       </c>
       <c r="C56">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D56">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2622,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2630,13 +2852,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3898305084745763</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="C57">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2648,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2656,13 +2878,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3209876543209876</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C58">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D58">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2674,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2682,13 +2904,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2786885245901639</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2700,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2708,13 +2930,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2777777777777778</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D60">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2726,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2734,13 +2956,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2587601078167116</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="C61">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2752,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>275</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2760,7 +2982,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2542372881355932</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="C62">
         <v>15</v>
@@ -2778,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2786,13 +3008,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2424242424242424</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="C63">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D63">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2804,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2812,13 +3034,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2380952380952381</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C64">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2830,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2838,13 +3060,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2137931034482759</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="C65">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D65">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2856,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2864,13 +3086,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2048192771084337</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C66">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D66">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2882,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2890,13 +3112,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1764705882352941</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2908,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2916,13 +3138,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1714285714285714</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C68">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2934,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>174</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2942,13 +3164,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1564625850340136</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C69">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D69">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2960,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>248</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2968,13 +3190,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1395348837209302</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D70">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2986,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>111</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2994,13 +3216,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1237458193979933</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="C71">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D71">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3012,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>262</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3020,13 +3242,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.108843537414966</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="C72">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D72">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3038,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>655</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3046,13 +3268,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.04432855280312908</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C73">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D73">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3064,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>733</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3072,25 +3294,545 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.03658536585365853</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C74">
+        <v>78</v>
+      </c>
+      <c r="D74">
+        <v>78</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.3658536585365854</v>
+      </c>
+      <c r="C75">
         <v>15</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>15</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>395</v>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="C76">
+        <v>16</v>
+      </c>
+      <c r="D76">
+        <v>16</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.3454545454545455</v>
+      </c>
+      <c r="C77">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>19</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.304635761589404</v>
+      </c>
+      <c r="C78">
+        <v>46</v>
+      </c>
+      <c r="D78">
+        <v>46</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C79">
+        <v>106</v>
+      </c>
+      <c r="D79">
+        <v>106</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.2771084337349398</v>
+      </c>
+      <c r="C80">
+        <v>23</v>
+      </c>
+      <c r="D80">
+        <v>23</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.2619047619047619</v>
+      </c>
+      <c r="C81">
+        <v>22</v>
+      </c>
+      <c r="D81">
+        <v>22</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.2344827586206897</v>
+      </c>
+      <c r="C82">
+        <v>34</v>
+      </c>
+      <c r="D82">
+        <v>34</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+      <c r="D83">
+        <v>30</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.2235294117647059</v>
+      </c>
+      <c r="C84">
+        <v>19</v>
+      </c>
+      <c r="D84">
+        <v>19</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="C85">
+        <v>63</v>
+      </c>
+      <c r="D85">
+        <v>63</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.2134831460674157</v>
+      </c>
+      <c r="C86">
+        <v>38</v>
+      </c>
+      <c r="D86">
+        <v>38</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="C87">
+        <v>15</v>
+      </c>
+      <c r="D87">
+        <v>15</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="C88">
+        <v>36</v>
+      </c>
+      <c r="D88">
+        <v>36</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="C89">
+        <v>36</v>
+      </c>
+      <c r="D89">
+        <v>36</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.1351351351351351</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+      <c r="D90">
+        <v>15</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>0.1346938775510204</v>
+      </c>
+      <c r="C91">
+        <v>99</v>
+      </c>
+      <c r="D91">
+        <v>99</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>0.1070234113712375</v>
+      </c>
+      <c r="C92">
+        <v>32</v>
+      </c>
+      <c r="D92">
+        <v>32</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>0.09778357235984354</v>
+      </c>
+      <c r="C93">
+        <v>75</v>
+      </c>
+      <c r="D93">
+        <v>75</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.08292682926829269</v>
+      </c>
+      <c r="C94">
+        <v>34</v>
+      </c>
+      <c r="D94">
+        <v>34</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
